--- a/HCRO/HCRO-Network-Infrastructure/Network-Wall-Port-Mapping.xlsx
+++ b/HCRO/HCRO-Network-Infrastructure/Network-Wall-Port-Mapping.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smeyers/Documents/GitHubSETI/Front-Page/HCRO-Network-Infrastructure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smeyers/Documents/GitHubSETI/Front-Page/HCRO/HCRO-Network-Infrastructure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D1422-0CED-EE4D-80A5-3657871504D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F77D5E-A974-F34A-B54E-4A1314416559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16460" yWindow="8420" windowWidth="27640" windowHeight="16940" xr2:uid="{4E213348-FF62-B440-B59C-815E7F096F2E}"/>
+    <workbookView xWindow="16480" yWindow="9020" windowWidth="27640" windowHeight="16940" xr2:uid="{4E213348-FF62-B440-B59C-815E7F096F2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$73</definedName>
   </definedNames>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB022DAA-1B20-E745-BC0A-55D8341CF941}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1564,7 +1564,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D71" xr:uid="{BB022DAA-1B20-E745-BC0A-55D8341CF941}">
+  <autoFilter ref="A1:D73" xr:uid="{BB022DAA-1B20-E745-BC0A-55D8341CF941}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:D71">
       <sortCondition ref="D1:D71"/>
     </sortState>
